--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>891663.2079841119</v>
+        <v>891053.4479270573</v>
       </c>
     </row>
     <row r="7">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>28.91202978408361</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>331.7563092553104</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4205320008605</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>236.3929637725579</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.70380890468674</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>203.4567449591752</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.10207205632648</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>74.38386736893801</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>302.5794985835475</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>295.324669126352</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>271.0123139449314</v>
       </c>
       <c r="V10" t="n">
-        <v>149.2900111900717</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2450776617475</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
         <v>284.8176194334632</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T11" t="n">
         <v>217.2590655368476</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1584,7 +1584,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U13" t="n">
-        <v>275.645275292109</v>
+        <v>123.7584861114435</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>112.8910567592837</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.65301062268134</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T14" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240546</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>7.243238839973195</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>156.56410959728</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>60.9403188813843</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T17" t="n">
         <v>217.2590655368476</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>67.77692056418644</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T19" t="n">
         <v>243.1546752508501</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2590655368471</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U20" t="n">
         <v>256.6189776240556</v>
@@ -2256,10 +2256,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.1546752508501</v>
+        <v>184.0775610783654</v>
       </c>
       <c r="U22" t="n">
         <v>275.645275292109</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>60.9403188813843</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T23" t="n">
         <v>217.2590655368476</v>
@@ -2377,10 +2377,10 @@
         <v>256.6189776240556</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655109</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>86.52768375462549</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>98.17623463259829</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U25" t="n">
         <v>275.645275292109</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T26" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.90132644576698</v>
+        <v>67.77692056418643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>275.645275292109</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>233.4448805254106</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T29" t="n">
         <v>217.2590655368476</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>137.9496946538981</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T31" t="n">
-        <v>98.17623463259919</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U31" t="n">
         <v>275.645275292109</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>113.2320398340927</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T32" t="n">
         <v>217.2590655368476</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86.18158324108965</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>156.56410959728</v>
@@ -3243,7 +3243,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U34" t="n">
-        <v>119.5711747566302</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T35" t="n">
         <v>217.2590655368476</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>23.05319431719602</v>
+        <v>71.96423191899979</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T38" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6189776240555</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>25.82886500703327</v>
       </c>
       <c r="G40" t="n">
-        <v>86.18158324108981</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S40" t="n">
         <v>156.56410959728</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T41" t="n">
         <v>217.2590655368476</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3906,10 +3906,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>23.05319431719602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.8731123569568</v>
@@ -3918,7 +3918,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.1546752508501</v>
+        <v>184.0775610783654</v>
       </c>
       <c r="U43" t="n">
         <v>275.645275292109</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T44" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4152,7 +4152,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9496946538981</v>
+        <v>105.7132848079372</v>
       </c>
       <c r="I46" t="n">
         <v>85.90132644576698</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>156.56410959728</v>
@@ -4191,13 +4191,13 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7840154479472</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.0638324846691</v>
+        <v>839.7357219218454</v>
       </c>
       <c r="C2" t="n">
-        <v>812.9617637084964</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>781.092382923345</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
         <v>323.4906125312521</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>873.5687185891154</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.3229989291729</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.2633838676462</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="C4" t="n">
-        <v>203.7016723508711</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1632.916586562698</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1354.483585815803</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1067.528077686233</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="W4" t="n">
-        <v>795.5016732725251</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="X4" t="n">
-        <v>795.5016732725251</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="Y4" t="n">
-        <v>568.0820025866333</v>
+        <v>774.8488427225424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.3728793740404</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1616.674532196895</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1616.674532196895</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1357.452229513912</v>
+        <v>1408.019692669128</v>
       </c>
       <c r="V5" t="n">
-        <v>994.8352794477387</v>
+        <v>1408.019692669128</v>
       </c>
       <c r="W5" t="n">
-        <v>994.020228899176</v>
+        <v>1003.164238080161</v>
       </c>
       <c r="X5" t="n">
-        <v>574.8777654784867</v>
+        <v>584.0217746594717</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.6320458185442</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
         <v>384.5656667282782</v>
@@ -4652,13 +4652,13 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
         <v>1159.957753041174</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.8308893488454</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C7" t="n">
-        <v>623.8308893488454</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9528965503681</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E7" t="n">
-        <v>288.1948928011053</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V7" t="n">
-        <v>1141.249048429141</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W7" t="n">
-        <v>869.2226440154329</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X7" t="n">
-        <v>623.8308893488454</v>
+        <v>933.8858245785766</v>
       </c>
       <c r="Y7" t="n">
-        <v>623.8308893488454</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>548.3728793740404</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.179759784392</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D8" t="n">
-        <v>797.5980855216599</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>767.8637447203591</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>339.9963151295669</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
         <v>34.36045797446834</v>
@@ -4804,25 +4804,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4840,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1398.875683488143</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1398.06063293958</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>978.9181695188907</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>974.6724498589482</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,40 +4871,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160836</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>1618.66069040253</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>1618.66069040253</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.1146084662527</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5528969494776</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4965,16 +4965,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>341.7616130750586</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4995,19 +4995,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1423.43361801483</v>
       </c>
       <c r="V10" t="n">
-        <v>1267.95243823244</v>
+        <v>1136.47810988526</v>
       </c>
       <c r="W10" t="n">
-        <v>995.9260338187319</v>
+        <v>864.451705471552</v>
       </c>
       <c r="X10" t="n">
-        <v>750.5342791521443</v>
+        <v>619.0599508049645</v>
       </c>
       <c r="Y10" t="n">
-        <v>523.1146084662527</v>
+        <v>391.6402801190728</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D11" t="n">
         <v>1652.736628213913</v>
@@ -5029,7 +5029,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G11" t="n">
         <v>389.8367995776304</v>
@@ -5047,46 +5047,46 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L11" t="n">
-        <v>2467.959557054137</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M11" t="n">
-        <v>2492.083625762056</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N11" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O11" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P11" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R11" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S11" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T11" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U11" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W11" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F12" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G12" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L12" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M12" t="n">
-        <v>464.4626320911572</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.408336060342</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O12" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P12" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1178.687535441155</v>
+        <v>1008.929531691893</v>
       </c>
       <c r="C13" t="n">
-        <v>1006.12582392438</v>
+        <v>836.3678201751178</v>
       </c>
       <c r="D13" t="n">
-        <v>840.2478311259031</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="E13" t="n">
-        <v>670.4898273766404</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F13" t="n">
-        <v>493.7827733383966</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G13" t="n">
-        <v>328.2543770182383</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H13" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I13" t="n">
         <v>102.1422344933241</v>
@@ -5205,10 +5205,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M13" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N13" t="n">
         <v>1823.203308416962</v>
@@ -5232,19 +5232,19 @@
         <v>2357.550060136378</v>
       </c>
       <c r="U13" t="n">
-        <v>2079.120489134248</v>
+        <v>2232.541488306637</v>
       </c>
       <c r="V13" t="n">
-        <v>1792.164981004679</v>
+        <v>1945.585980177068</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.13857659097</v>
+        <v>1673.559575763359</v>
       </c>
       <c r="X13" t="n">
-        <v>1406.107206127047</v>
+        <v>1428.167821096772</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.687535441155</v>
+        <v>1200.74815041088</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J14" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K14" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L14" t="n">
-        <v>2067.258264596789</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M14" t="n">
-        <v>3248.430168515259</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N14" t="n">
-        <v>4398.675573312257</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O14" t="n">
-        <v>4421.823846255877</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P14" t="n">
-        <v>5083.645227584739</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q14" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R14" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S14" t="n">
         <v>5026.654138178648</v>
@@ -5336,19 +5336,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D15" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E15" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F15" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G15" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H15" t="n">
         <v>102.1422344933241</v>
@@ -5360,19 +5360,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L15" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N15" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O15" t="n">
-        <v>1076.986249899104</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P15" t="n">
         <v>1091.023220340725</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1039.344409528127</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C16" t="n">
         <v>866.7826980113522</v>
@@ -5427,10 +5427,10 @@
         <v>354.4396474253683</v>
       </c>
       <c r="G16" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="H16" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5442,10 +5442,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M16" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N16" t="n">
         <v>1823.203308416962</v>
@@ -5460,28 +5460,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T16" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U16" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V16" t="n">
-        <v>1792.164981004679</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W16" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X16" t="n">
-        <v>1458.582698933006</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y16" t="n">
-        <v>1231.163028247114</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C17" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D17" t="n">
         <v>1652.736628213913</v>
@@ -5503,7 +5503,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F17" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G17" t="n">
         <v>389.8367995776304</v>
@@ -5521,46 +5521,46 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M17" t="n">
-        <v>3320.393500595453</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N17" t="n">
-        <v>3344.907921956004</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O17" t="n">
-        <v>4348.23586146993</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P17" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R17" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T17" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W17" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X17" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="18">
@@ -5573,46 +5573,46 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C18" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D18" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E18" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F18" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G18" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H18" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I18" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K18" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L18" t="n">
-        <v>139.4489541568687</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M18" t="n">
-        <v>158.0744257543813</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N18" t="n">
-        <v>1411.020129723566</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.509760288743</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P18" t="n">
-        <v>1442.546730730365</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q18" t="n">
         <v>1641.145501977371</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.5085325195037</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C19" t="n">
-        <v>682.9468210027286</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D19" t="n">
-        <v>517.0688282042513</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E19" t="n">
-        <v>347.3108244549886</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F19" t="n">
-        <v>170.6037704167448</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G19" t="n">
         <v>102.1422344933241</v>
@@ -5679,10 +5679,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L19" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M19" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N19" t="n">
         <v>1823.203308416962</v>
@@ -5697,28 +5697,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S19" t="n">
-        <v>2603.160843218045</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T19" t="n">
-        <v>2357.550060136378</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U19" t="n">
-        <v>2079.120489134248</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V19" t="n">
-        <v>1792.164981004679</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W19" t="n">
-        <v>1520.13857659097</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X19" t="n">
-        <v>1274.746821924383</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y19" t="n">
-        <v>1047.327151238491</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="20">
@@ -5755,31 +5755,31 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>1143.679603840572</v>
+        <v>1371.218789664405</v>
       </c>
       <c r="L20" t="n">
-        <v>1165.360404977445</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M20" t="n">
-        <v>2346.532308895915</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N20" t="n">
-        <v>3496.777713692913</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O20" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P20" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q20" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R20" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S20" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T20" t="n">
         <v>4807.200536626277</v>
@@ -5810,49 +5810,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C21" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D21" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E21" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F21" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G21" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H21" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L21" t="n">
-        <v>859.9412655747532</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M21" t="n">
-        <v>878.5667371722657</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N21" t="n">
-        <v>897.685169581144</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O21" t="n">
-        <v>915.1748001463208</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1039.344409528127</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C22" t="n">
-        <v>866.7826980113522</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D22" t="n">
-        <v>700.9047052128749</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E22" t="n">
-        <v>531.1467014636121</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F22" t="n">
-        <v>354.4396474253683</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G22" t="n">
-        <v>188.9112511052099</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H22" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I22" t="n">
         <v>102.1422344933241</v>
@@ -5916,10 +5916,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L22" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M22" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N22" t="n">
         <v>1823.203308416962</v>
@@ -5934,28 +5934,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T22" t="n">
-        <v>2357.550060136378</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U22" t="n">
-        <v>2079.120489134248</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V22" t="n">
-        <v>1792.164981004679</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.13857659097</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X22" t="n">
-        <v>1458.582698933006</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y22" t="n">
-        <v>1231.163028247114</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="23">
@@ -5989,40 +5989,40 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K23" t="n">
-        <v>1405.772184659974</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L23" t="n">
-        <v>1511.382638370746</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M23" t="n">
-        <v>1535.506707078666</v>
+        <v>3207.736476473709</v>
       </c>
       <c r="N23" t="n">
-        <v>2685.752111875664</v>
+        <v>3232.250897834259</v>
       </c>
       <c r="O23" t="n">
-        <v>3689.08005138959</v>
+        <v>4235.578837348186</v>
       </c>
       <c r="P23" t="n">
-        <v>4537.146441626143</v>
+        <v>5083.64522758474</v>
       </c>
       <c r="Q23" t="n">
         <v>5098.481547872238</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T23" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U23" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V23" t="n">
         <v>4185.372498050956</v>
@@ -6047,49 +6047,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C24" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D24" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E24" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F24" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G24" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H24" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L24" t="n">
-        <v>139.4489541568687</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M24" t="n">
-        <v>464.4626320911572</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N24" t="n">
-        <v>1717.408336060342</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O24" t="n">
-        <v>1734.897966625519</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P24" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q24" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R24" t="n">
         <v>1762.882278270333</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1178.687535441155</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C25" t="n">
-        <v>1006.12582392438</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D25" t="n">
-        <v>840.2478311259031</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E25" t="n">
-        <v>670.4898273766404</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F25" t="n">
-        <v>493.7827733383966</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G25" t="n">
-        <v>328.2543770182383</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H25" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I25" t="n">
         <v>102.1422344933241</v>
@@ -6153,10 +6153,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L25" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M25" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N25" t="n">
         <v>1823.203308416962</v>
@@ -6174,25 +6174,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S25" t="n">
-        <v>2680.72906305803</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T25" t="n">
-        <v>2680.72906305803</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U25" t="n">
-        <v>2402.2994920559</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>2115.343983926331</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W25" t="n">
-        <v>1843.317579512622</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X25" t="n">
-        <v>1597.925824846034</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.506154160143</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C26" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G26" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H26" t="n">
         <v>102.1422344933241</v>
@@ -6232,13 +6232,13 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>2467.959557054138</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M26" t="n">
-        <v>2492.083625762057</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.598047122608</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O26" t="n">
         <v>3519.925986636534</v>
@@ -6271,7 +6271,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y26" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L27" t="n">
-        <v>665.8628222356496</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M27" t="n">
-        <v>684.4882938331621</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N27" t="n">
-        <v>703.6067262420404</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O27" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P27" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
         <v>1762.882278270333</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3505.90228327903</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C28" t="n">
-        <v>3333.340571762255</v>
+        <v>682.9468210027286</v>
       </c>
       <c r="D28" t="n">
-        <v>3167.462578963777</v>
+        <v>517.0688282042513</v>
       </c>
       <c r="E28" t="n">
-        <v>2997.704575214515</v>
+        <v>347.3108244549886</v>
       </c>
       <c r="F28" t="n">
-        <v>2820.997521176271</v>
+        <v>170.6037704167448</v>
       </c>
       <c r="G28" t="n">
-        <v>2655.469124856113</v>
+        <v>170.6037704167448</v>
       </c>
       <c r="H28" t="n">
-        <v>2516.125998943084</v>
+        <v>170.6037704167448</v>
       </c>
       <c r="I28" t="n">
-        <v>2429.356982331198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J28" t="n">
-        <v>2520.293722469985</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K28" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L28" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M28" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N28" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O28" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P28" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q28" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R28" t="n">
-        <v>5088.521156305698</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S28" t="n">
-        <v>4930.37559105592</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T28" t="n">
-        <v>4684.764807974254</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U28" t="n">
-        <v>4406.335236972123</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V28" t="n">
-        <v>4406.335236972123</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W28" t="n">
-        <v>4170.532327350496</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X28" t="n">
-        <v>3925.140572683908</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y28" t="n">
-        <v>3697.720901998017</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G29" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H29" t="n">
         <v>102.1422344933241</v>
@@ -6469,46 +6469,46 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L29" t="n">
-        <v>2467.959557054137</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M29" t="n">
-        <v>2492.083625762056</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R29" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S29" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T29" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W29" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="30">
@@ -6521,49 +6521,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D30" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F30" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G30" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H30" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I30" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L30" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M30" t="n">
-        <v>684.4882938331621</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N30" t="n">
-        <v>703.6067262420404</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O30" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P30" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3505.902283279029</v>
+        <v>1013.159139120997</v>
       </c>
       <c r="C31" t="n">
-        <v>3333.340571762254</v>
+        <v>840.5974276042222</v>
       </c>
       <c r="D31" t="n">
-        <v>3167.462578963776</v>
+        <v>674.7194348057449</v>
       </c>
       <c r="E31" t="n">
-        <v>2997.704575214514</v>
+        <v>504.9614310564822</v>
       </c>
       <c r="F31" t="n">
-        <v>2820.99752117627</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="G31" t="n">
-        <v>2655.469124856112</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H31" t="n">
-        <v>2516.125998943083</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I31" t="n">
-        <v>2429.356982331197</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J31" t="n">
-        <v>2520.293722469984</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K31" t="n">
-        <v>2802.212156797962</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L31" t="n">
-        <v>3229.584347559929</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M31" t="n">
-        <v>3698.728584924506</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N31" t="n">
-        <v>4150.418056254836</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O31" t="n">
-        <v>4578.798053935968</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P31" t="n">
-        <v>4933.758498038159</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q31" t="n">
-        <v>5107.111724666205</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>5107.111724666205</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S31" t="n">
-        <v>5107.111724666205</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T31" t="n">
-        <v>5007.943810895903</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U31" t="n">
-        <v>4729.514239893772</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V31" t="n">
-        <v>4442.558731764203</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W31" t="n">
-        <v>4170.532327350495</v>
+        <v>1677.789183192464</v>
       </c>
       <c r="X31" t="n">
-        <v>3925.140572683908</v>
+        <v>1432.397428525876</v>
       </c>
       <c r="Y31" t="n">
-        <v>3697.720901998016</v>
+        <v>1204.977757839984</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G32" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H32" t="n">
         <v>102.1422344933241</v>
@@ -6700,52 +6700,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>1165.360404977445</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M32" t="n">
-        <v>2346.532308895915</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N32" t="n">
-        <v>3496.777713692913</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O32" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P32" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q32" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S32" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T32" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U32" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W32" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="33">
@@ -6758,49 +6758,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C33" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D33" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E33" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F33" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G33" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H33" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L33" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M33" t="n">
-        <v>158.0744257543813</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N33" t="n">
-        <v>1411.020129723566</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O33" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P33" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q33" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R33" t="n">
         <v>1762.882278270333</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1013.159139120997</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C34" t="n">
-        <v>840.5974276042222</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D34" t="n">
-        <v>674.7194348057449</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E34" t="n">
-        <v>504.9614310564821</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F34" t="n">
-        <v>328.2543770182383</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G34" t="n">
-        <v>328.2543770182383</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H34" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
@@ -6864,10 +6864,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L34" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M34" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N34" t="n">
         <v>1823.203308416962</v>
@@ -6882,28 +6882,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R34" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S34" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T34" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U34" t="n">
-        <v>2236.771095735742</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V34" t="n">
-        <v>1949.815587606172</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W34" t="n">
-        <v>1677.789183192464</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.397428525876</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.977757839984</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G35" t="n">
         <v>389.8367995776307</v>
@@ -6937,28 +6937,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J35" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>1232.907972638611</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M35" t="n">
-        <v>2414.079876557081</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N35" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O35" t="n">
-        <v>4235.578837348186</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P35" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q35" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R35" t="n">
         <v>5107.111724666206</v>
@@ -6973,16 +6973,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C36" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D36" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E36" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F36" t="n">
-        <v>3572.693065784117</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G36" t="n">
-        <v>3487.38297744996</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H36" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I36" t="n">
-        <v>3474.966251609643</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>3806.46955292486</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>4350.021386728865</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L36" t="n">
-        <v>4365.982161723409</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M36" t="n">
-        <v>4384.607633320922</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N36" t="n">
-        <v>4403.7260657298</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O36" t="n">
-        <v>4421.215696294978</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P36" t="n">
-        <v>4435.252666736599</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q36" t="n">
-        <v>4985.374948373245</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R36" t="n">
-        <v>5107.111724666206</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S36" t="n">
-        <v>5045.049405217908</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T36" t="n">
-        <v>4915.173069821698</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U36" t="n">
-        <v>4738.841457124276</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V36" t="n">
-        <v>4539.723939186275</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W36" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X36" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y36" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="37">
@@ -7080,16 +7080,16 @@
         <v>517.0688282042513</v>
       </c>
       <c r="E37" t="n">
-        <v>493.7827733383967</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F37" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G37" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H37" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7101,10 +7101,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L37" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M37" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N37" t="n">
         <v>1823.203308416962</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7183,19 +7183,19 @@
         <v>2502.512952049707</v>
       </c>
       <c r="M38" t="n">
-        <v>2526.637020757626</v>
+        <v>3320.393500595454</v>
       </c>
       <c r="N38" t="n">
-        <v>2551.151442118177</v>
+        <v>3344.907921956004</v>
       </c>
       <c r="O38" t="n">
-        <v>3554.479381632103</v>
+        <v>4348.235861469931</v>
       </c>
       <c r="P38" t="n">
-        <v>4402.545771868657</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q38" t="n">
-        <v>4963.880878114751</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R38" t="n">
         <v>5107.111724666206</v>
@@ -7210,16 +7210,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C39" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D39" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E39" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F39" t="n">
-        <v>3572.693065784117</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G39" t="n">
-        <v>3487.38297744996</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H39" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I39" t="n">
-        <v>3474.966251609643</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J39" t="n">
-        <v>3806.46955292486</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>4350.021386728865</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L39" t="n">
-        <v>4365.982161723409</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M39" t="n">
-        <v>4384.607633320922</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N39" t="n">
-        <v>4403.7260657298</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O39" t="n">
-        <v>4421.215696294978</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P39" t="n">
-        <v>4435.252666736599</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q39" t="n">
-        <v>4985.374948373245</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R39" t="n">
-        <v>5107.111724666206</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S39" t="n">
-        <v>5045.049405217908</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T39" t="n">
-        <v>4915.173069821698</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U39" t="n">
-        <v>4738.841457124276</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V39" t="n">
-        <v>4539.723939186275</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W39" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X39" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y39" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3201.313848717886</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C40" t="n">
-        <v>3028.752137201111</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="D40" t="n">
-        <v>2862.874144402634</v>
+        <v>689.6305397210264</v>
       </c>
       <c r="E40" t="n">
-        <v>2693.116140653371</v>
+        <v>519.8725359717637</v>
       </c>
       <c r="F40" t="n">
-        <v>2516.409086615127</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G40" t="n">
-        <v>2429.356982331198</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H40" t="n">
-        <v>2429.356982331198</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I40" t="n">
-        <v>2429.356982331198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J40" t="n">
-        <v>2520.293722469985</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K40" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L40" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M40" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N40" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O40" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P40" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q40" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R40" t="n">
-        <v>5107.111724666206</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S40" t="n">
-        <v>4948.966159416428</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T40" t="n">
-        <v>4703.355376334761</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U40" t="n">
-        <v>4424.92580533263</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V40" t="n">
-        <v>4137.970297203061</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W40" t="n">
-        <v>3865.943892789353</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X40" t="n">
-        <v>3620.552138122765</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y40" t="n">
-        <v>3393.132467436873</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C41" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E41" t="n">
         <v>1218.961883372208</v>
@@ -7414,16 +7414,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>571.4218927017964</v>
+        <v>1320.547772480818</v>
       </c>
       <c r="L41" t="n">
-        <v>593.1026938386694</v>
+        <v>1342.228573617691</v>
       </c>
       <c r="M41" t="n">
-        <v>1774.27459775714</v>
+        <v>1366.35264232561</v>
       </c>
       <c r="N41" t="n">
-        <v>2924.520002554138</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O41" t="n">
         <v>3519.925986636534</v>
@@ -7456,7 +7456,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="42">
@@ -7490,7 +7490,7 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J42" t="n">
-        <v>313.1883495026064</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
         <v>1005.791940332991</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>855.5085325195037</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C43" t="n">
-        <v>682.9468210027286</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D43" t="n">
-        <v>517.0688282042513</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E43" t="n">
-        <v>493.7827733383967</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F43" t="n">
-        <v>493.7827733383967</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G43" t="n">
-        <v>328.2543770182384</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H43" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I43" t="n">
         <v>102.1422344933241</v>
@@ -7575,10 +7575,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L43" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M43" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N43" t="n">
         <v>1823.203308416962</v>
@@ -7593,28 +7593,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R43" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T43" t="n">
-        <v>2357.550060136378</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U43" t="n">
-        <v>2079.120489134248</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V43" t="n">
-        <v>1792.164981004679</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W43" t="n">
-        <v>1520.13857659097</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X43" t="n">
-        <v>1274.746821924383</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y43" t="n">
-        <v>1047.327151238491</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
         <v>2088.646413039469</v>
@@ -7651,13 +7651,13 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>1405.772184659974</v>
+        <v>1320.547772480818</v>
       </c>
       <c r="L44" t="n">
-        <v>2467.959557054138</v>
+        <v>1342.228573617691</v>
       </c>
       <c r="M44" t="n">
-        <v>2492.083625762057</v>
+        <v>1366.35264232561</v>
       </c>
       <c r="N44" t="n">
         <v>2516.598047122608</v>
@@ -7693,7 +7693,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I45" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J45" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L45" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M45" t="n">
-        <v>220.6550204458502</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N45" t="n">
-        <v>239.7734528547285</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O45" t="n">
-        <v>257.2630834199053</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P45" t="n">
         <v>1091.023220340725</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1178.687535441156</v>
+        <v>1146.12550529372</v>
       </c>
       <c r="C46" t="n">
-        <v>1006.125823924381</v>
+        <v>973.5637937769453</v>
       </c>
       <c r="D46" t="n">
-        <v>840.2478311259033</v>
+        <v>807.685800978468</v>
       </c>
       <c r="E46" t="n">
-        <v>670.4898273766405</v>
+        <v>637.9277972292052</v>
       </c>
       <c r="F46" t="n">
-        <v>493.7827733383967</v>
+        <v>461.2207431909615</v>
       </c>
       <c r="G46" t="n">
-        <v>328.2543770182384</v>
+        <v>295.6923468708031</v>
       </c>
       <c r="H46" t="n">
         <v>188.91125110521</v>
@@ -7812,10 +7812,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M46" t="n">
-        <v>1371.513837086633</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N46" t="n">
         <v>1823.203308416962</v>
@@ -7830,28 +7830,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U46" t="n">
-        <v>2115.343983926331</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V46" t="n">
-        <v>2115.343983926331</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W46" t="n">
-        <v>1843.317579512622</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="X46" t="n">
-        <v>1597.925824846035</v>
+        <v>1565.363794698599</v>
       </c>
       <c r="Y46" t="n">
-        <v>1370.506154160143</v>
+        <v>1337.944124012708</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8382,19 +8382,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>152.0558298092335</v>
       </c>
       <c r="O7" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>79.31589866453214</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,19 +8613,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1051.016738643727</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>309.4830367038142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>648.550369621923</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>537.0522859030276</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,10 +9169,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M17" t="n">
-        <v>801.7742220584109</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.1266951943799</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>578.0380920593695</v>
+        <v>807.8756534975851</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L21" t="n">
-        <v>727.7700115332167</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>84.77742684232203</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1127.630447645455</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,7 +9658,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>309.4830367038142</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.016738643728</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>955.1780520956941</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L27" t="n">
-        <v>531.7311798775564</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.016738643727</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>531.7311798775564</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>174.9112188217331</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>309.4830367038142</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>654.651801061098</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>537.052285903028</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>801.7742220584119</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>135.9602724823108</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>537.052285903028</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>756.6928078575975</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>578.0380920593702</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>177.2793615553861</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>756.6928078575975</v>
       </c>
       <c r="L44" t="n">
-        <v>1051.016738643728</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>63.21272191057466</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>151.8867891806654</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>130.046780360638</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.5928555616341</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>181.9975182385373</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>96.09619179277033</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>137.9496946538981</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>59.07711417248476</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>181.9975182385373</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>77.69152911586704</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
-        <v>58.38787496468169</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>18.12440588158056</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.86125984416077</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>144.9784406182509</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>156.0741005354787</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8731123569568</v>
+        <v>77.69152911586711</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>156.0741005354787</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.0072293945741</v>
+        <v>96.09619179277033</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>149.1111184908281</v>
       </c>
       <c r="G40" t="n">
-        <v>77.69152911586696</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.0072293945741</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>59.07711417248476</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.23640984596089</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.86125984416174</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658251.1152564442</v>
+        <v>658251.1152564443</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>383139.7254162176</v>
+        <v>383139.7254162179</v>
       </c>
       <c r="F2" t="n">
         <v>383139.7254162176</v>
@@ -26331,10 +26331,10 @@
         <v>383139.7254162178</v>
       </c>
       <c r="H2" t="n">
+        <v>383139.7254162179</v>
+      </c>
+      <c r="I2" t="n">
         <v>383139.7254162178</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383139.7254162179</v>
       </c>
       <c r="J2" t="n">
         <v>383139.7254162178</v>
@@ -26352,7 +26352,7 @@
         <v>383139.7254162178</v>
       </c>
       <c r="O2" t="n">
-        <v>383139.7254162176</v>
+        <v>383139.7254162179</v>
       </c>
       <c r="P2" t="n">
         <v>383139.7254162178</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>282266.1702848778</v>
+        <v>282266.1702848779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224357.4126279203</v>
+        <v>224357.4126279202</v>
       </c>
       <c r="C4" t="n">
         <v>224357.4126279203</v>
@@ -26478,28 +26478,28 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="F5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="G5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="H5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="I5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="J5" t="n">
         <v>78380.64252189653</v>
       </c>
       <c r="K5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="L5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="M5" t="n">
         <v>78380.64252189653</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37266.69450430636</v>
+        <v>-37266.69450430647</v>
       </c>
       <c r="C6" t="n">
-        <v>104924.6061554035</v>
+        <v>104924.6061554034</v>
       </c>
       <c r="D6" t="n">
         <v>104924.6061554035</v>
       </c>
       <c r="E6" t="n">
-        <v>-94885.5937163193</v>
+        <v>-94904.79054909272</v>
       </c>
       <c r="F6" t="n">
-        <v>187380.5765685585</v>
+        <v>187361.3797357849</v>
       </c>
       <c r="G6" t="n">
-        <v>187380.5765685586</v>
+        <v>187361.379735785</v>
       </c>
       <c r="H6" t="n">
-        <v>187380.5765685586</v>
+        <v>187361.3797357852</v>
       </c>
       <c r="I6" t="n">
-        <v>187380.5765685587</v>
+        <v>187361.379735785</v>
       </c>
       <c r="J6" t="n">
-        <v>76366.11122356838</v>
+        <v>76346.91439079485</v>
       </c>
       <c r="K6" t="n">
-        <v>187380.5765685587</v>
+        <v>187361.379735785</v>
       </c>
       <c r="L6" t="n">
-        <v>187380.5765685586</v>
+        <v>187361.379735785</v>
       </c>
       <c r="M6" t="n">
-        <v>-25061.36611243061</v>
+        <v>-25080.56294520417</v>
       </c>
       <c r="N6" t="n">
-        <v>187380.5765685586</v>
+        <v>187361.379735785</v>
       </c>
       <c r="O6" t="n">
-        <v>187380.5765685585</v>
+        <v>187361.3797357852</v>
       </c>
       <c r="P6" t="n">
-        <v>187380.5765685586</v>
+        <v>187361.379735785</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
     </row>
     <row r="4">
@@ -26798,28 +26798,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="F4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="G4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="H4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="I4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
         <v>1276.777931166552</v>
       </c>
       <c r="K4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="L4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="M4" t="n">
         <v>1276.777931166552</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367911</v>
+        <v>34.52038105367907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>852.4820736464469</v>
+        <v>852.4820736464471</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464469</v>
+        <v>852.4820736464471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>393.1245449959751</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>83.19472953117202</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>201.0001199564688</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>47.69298927571589</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.111546173314622</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>53.17333469697812</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>273.9838809919473</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>150.7616066100948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>94.80435447942119</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27912,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>63.66611143915975</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28067,10 +28067,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4.636356794494304</v>
       </c>
       <c r="V10" t="n">
-        <v>134.7959418582022</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M14" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M17" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M20" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M23" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M29" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M32" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M35" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M38" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M41" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208204</v>
+        <v>0.1387754012208203</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752728</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565685</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936562</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304295</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815464</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M44" t="n">
-        <v>24.3677461696154</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833406</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244453</v>
+        <v>23.3820938824445</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480552</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858488</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937369</v>
+        <v>8.717350296937358</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319449</v>
+        <v>3.162344455319445</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441418</v>
+        <v>0.607489318844141</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766563</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263054</v>
+        <v>0.07425138566263045</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943529</v>
+        <v>0.717112066794352</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805482</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257565</v>
+        <v>7.015127625257556</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465381</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398474</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425509</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775583</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017859</v>
+        <v>17.66629350017857</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184039</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040348</v>
+        <v>9.478124247040336</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527186</v>
+        <v>4.61009919052718</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286141</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559537</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067801</v>
+        <v>0.004884959583067795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384757</v>
+        <v>0.06224986747384749</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311179</v>
+        <v>0.5534579126311172</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304435</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401023</v>
+        <v>4.401065630401018</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688834</v>
+        <v>7.232302784688825</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702757</v>
+        <v>9.254857569702747</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468668</v>
+        <v>9.757949680468656</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157063</v>
+        <v>9.52592744715705</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485294</v>
+        <v>8.798735813485283</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018797</v>
+        <v>7.528838517018788</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105546</v>
+        <v>5.212577539105539</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778636</v>
+        <v>2.798980404778633</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703325</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791668</v>
+        <v>0.2659767064791665</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755326</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>152.0558298092335</v>
       </c>
       <c r="O7" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>79.31589866453214</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J11" t="n">
         <v>451.4295881567574</v>
@@ -35415,7 +35415,7 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L11" t="n">
-        <v>1072.916537771882</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M11" t="n">
         <v>24.3677461696152</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465381</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>328.2966443780692</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N12" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O12" t="n">
         <v>17.66629350017865</v>
@@ -35509,10 +35509,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K13" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L13" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M13" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N13" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O13" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P13" t="n">
         <v>358.5459031335258</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K14" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N14" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P14" t="n">
-        <v>668.5064457867284</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>28.8834047681263</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J15" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
         <v>16.12199494398476</v>
@@ -35740,10 +35740,10 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q15" t="n">
         <v>555.679072360248</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K16" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L16" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M16" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N16" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O16" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P16" t="n">
         <v>358.5459031335258</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J17" t="n">
         <v>451.4295881567574</v>
@@ -35889,10 +35889,10 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M17" t="n">
-        <v>826.1419682280261</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N17" t="n">
         <v>24.76204177833415</v>
@@ -35901,7 +35901,7 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q17" t="n">
         <v>567.0051578243374</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N18" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.6048194414202</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
         <v>122.9664406999614</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K19" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L19" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M19" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N19" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O19" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P19" t="n">
         <v>358.5459031335258</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J20" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
-        <v>595.6908435024125</v>
+        <v>825.528404940628</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N20" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
         <v>856.6327174106605</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465381</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L21" t="n">
-        <v>743.8920064772014</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P21" t="n">
-        <v>842.181956485677</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K22" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L22" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M22" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N22" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O22" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P22" t="n">
         <v>358.5459031335258</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J23" t="n">
-        <v>451.4295881567574</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K23" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>106.6772259704767</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961543</v>
+        <v>1151.99819381507</v>
       </c>
       <c r="N23" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
-        <v>856.6327174106605</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q23" t="n">
-        <v>567.0051578243374</v>
+        <v>14.98618210858513</v>
       </c>
       <c r="R23" t="n">
         <v>8.717350296937184</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465381</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>328.2966443780692</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R24" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K25" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L25" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M25" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N25" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O25" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P25" t="n">
         <v>358.5459031335258</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567574</v>
@@ -36600,16 +36600,16 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>1072.916537771883</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N26" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
-        <v>1013.462565165582</v>
+        <v>978.5601459781387</v>
       </c>
       <c r="P26" t="n">
         <v>856.6327174106605</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465381</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L27" t="n">
-        <v>547.8531748215412</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O27" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948183</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K28" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L28" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M28" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N28" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O28" t="n">
         <v>432.7070683647798</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J29" t="n">
         <v>451.4295881567574</v>
@@ -36837,7 +36837,7 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L29" t="n">
-        <v>1072.916537771882</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M29" t="n">
         <v>24.3677461696152</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465381</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>550.5447875518115</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O30" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P30" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948183</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K31" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L31" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M31" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N31" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O31" t="n">
         <v>432.7070683647798</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
-        <v>196.8110179498877</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N32" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
         <v>856.6327174106605</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465381</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425511</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
-        <v>327.1493302039928</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P33" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R33" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K34" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L34" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M34" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N34" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O34" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P34" t="n">
         <v>358.5459031335258</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936561</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304294</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M35" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N35" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
-        <v>678.0338949435427</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P35" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>28.88340476812618</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0422563676816</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775621</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O36" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184062</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L37" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M37" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N37" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O37" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P37" t="n">
         <v>358.5459031335258</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J38" t="n">
         <v>451.4295881567574</v>
@@ -37551,7 +37551,7 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961566</v>
+        <v>826.1419682280271</v>
       </c>
       <c r="N38" t="n">
         <v>24.76204177833415</v>
@@ -37560,13 +37560,13 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P38" t="n">
-        <v>856.63271741066</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q38" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
-        <v>144.6776227792479</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>28.88340476812618</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J39" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0422563676816</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775621</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O39" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184062</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R39" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.85529306948183</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K40" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L40" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M40" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N40" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O40" t="n">
         <v>432.7070683647798</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J41" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304292</v>
+        <v>774.3455593006404</v>
       </c>
       <c r="L41" t="n">
         <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N41" t="n">
         <v>1161.864045249493</v>
       </c>
       <c r="O41" t="n">
-        <v>601.4201859418149</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
         <v>856.6327174106605</v>
@@ -37858,10 +37858,10 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J42" t="n">
-        <v>184.2944891806437</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>699.5995866973582</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L42" t="n">
         <v>16.12199494398476</v>
@@ -37943,16 +37943,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L43" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M43" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N43" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O43" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P43" t="n">
         <v>358.5459031335258</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434287</v>
+        <v>4.937517176434281</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
-        <v>860.4308241280712</v>
+        <v>774.3455593006404</v>
       </c>
       <c r="L44" t="n">
-        <v>1072.916537771883</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M44" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833415</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O44" t="n">
         <v>1013.462565165582</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257563</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465381</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L45" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
-        <v>82.02632958482977</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775584</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O45" t="n">
-        <v>17.6662935001786</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P45" t="n">
-        <v>842.181956485677</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q45" t="n">
         <v>555.679072360248</v>
@@ -38180,16 +38180,16 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L46" t="n">
-        <v>431.6890815777443</v>
+        <v>431.6890815777442</v>
       </c>
       <c r="M46" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N46" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O46" t="n">
-        <v>432.7070683647796</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P46" t="n">
         <v>358.5459031335258</v>
